--- a/PerformanceTable.xlsx
+++ b/PerformanceTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Project Files\N-Body\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Project Files\N-Body\Parallel-N-Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C1A892-BA0C-42F2-8BD5-CD0A049DBA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B955ACD6-7C46-4608-BC4D-3A8C5B606042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7E97CE3A-31D6-4C49-8965-2B1756764954}"/>
   </bookViews>
@@ -456,7 +456,7 @@
       <name val="Montserrat"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +493,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB948"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -506,11 +512,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -518,9 +521,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -544,6 +544,27 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,14 +573,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9E00"/>
+      <color rgb="FFFFB948"/>
+      <color rgb="FFFFE4B8"/>
       <color rgb="FFFFD48D"/>
-      <color rgb="FFFF9E00"/>
+      <color rgb="FFFFC361"/>
       <color rgb="FFFFBB4C"/>
       <color rgb="FFFFBD52"/>
       <color rgb="FFFFC76B"/>
-      <color rgb="FFFFC361"/>
-      <color rgb="FFFFE4B8"/>
-      <color rgb="FFFFB948"/>
       <color rgb="FF7B2CBF"/>
       <color rgb="FF3C096C"/>
     </mruColors>
@@ -579,7 +600,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
@@ -932,887 +953,1171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F223BCBC-CBAE-4527-A091-6FBDA7E5C4E9}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="2" customWidth="1"/>
-    <col min="6" max="20" width="12.28515625" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5703125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="12.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="1" style="1" customWidth="1"/>
+    <col min="12" max="15" width="12.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.140625" style="1" customWidth="1"/>
+    <col min="17" max="20" width="12.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="1.28515625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="12.28515625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+    </row>
+    <row r="2" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="M2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="R2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="S2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="T2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="U2" s="9"/>
+      <c r="V2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="W2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="X2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1500</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2"/>
+      <c r="G3" s="4">
         <v>1388.8100999999999</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="4">
         <v>1377.66815</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="5">
         <v>1230.5202999999999</v>
       </c>
-      <c r="I3" s="6">
-        <f>MIN(F3:H3)</f>
+      <c r="J3" s="4">
+        <f>MIN(G3:I3)</f>
         <v>1230.5202999999999</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4">
         <v>733.85709999999995</v>
       </c>
-      <c r="K3" s="6">
+      <c r="M3" s="4">
         <v>765.85815000000002</v>
       </c>
-      <c r="L3" s="7">
+      <c r="N3" s="5">
         <v>703.28035</v>
       </c>
-      <c r="M3" s="6">
-        <f xml:space="preserve"> MIN(J3:L3)</f>
+      <c r="O3" s="4">
+        <f xml:space="preserve"> MIN(L3:N3)</f>
         <v>703.28035</v>
       </c>
-      <c r="N3" s="6">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4">
         <v>1.89</v>
       </c>
-      <c r="O3" s="6">
+      <c r="R3" s="4">
         <v>1.79</v>
       </c>
-      <c r="P3" s="6">
+      <c r="S3" s="4">
         <v>1.74</v>
       </c>
-      <c r="Q3" s="6">
-        <f>MAX(N3:P3)</f>
+      <c r="T3" s="4">
+        <f>MAX(Q3:S3)</f>
         <v>1.89</v>
       </c>
-      <c r="R3" s="6">
+      <c r="U3" s="4"/>
+      <c r="V3" s="4">
         <v>0.94</v>
       </c>
-      <c r="S3" s="6">
+      <c r="W3" s="4">
         <v>0.89</v>
       </c>
-      <c r="T3" s="6">
+      <c r="X3" s="4">
         <v>0.87</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6">
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4">
         <v>727.31280000000004</v>
       </c>
-      <c r="K4" s="6">
+      <c r="M4" s="4">
         <v>677.45740000000001</v>
       </c>
-      <c r="L4" s="7">
+      <c r="N4" s="5">
         <v>525.87789999999995</v>
       </c>
-      <c r="M4" s="6">
-        <f t="shared" ref="M4:M7" si="0" xml:space="preserve"> MIN(J4:L4)</f>
+      <c r="O4" s="4">
+        <f t="shared" ref="O4:O7" si="0" xml:space="preserve"> MIN(L4:N4)</f>
         <v>525.87789999999995</v>
       </c>
-      <c r="N4" s="6">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4">
         <v>1.9</v>
       </c>
-      <c r="O4" s="6">
+      <c r="R4" s="4">
         <v>2.0299999999999998</v>
       </c>
-      <c r="P4" s="6">
+      <c r="S4" s="4">
         <v>2.33</v>
       </c>
-      <c r="Q4" s="6">
-        <f t="shared" ref="Q4:Q7" si="1">MAX(N4:P4)</f>
+      <c r="T4" s="4">
+        <f>MAX(Q4:S4)</f>
         <v>2.33</v>
       </c>
-      <c r="R4" s="6">
+      <c r="U4" s="4"/>
+      <c r="V4" s="4">
         <v>0.63</v>
       </c>
-      <c r="S4" s="6">
+      <c r="W4" s="4">
         <v>0.67</v>
       </c>
-      <c r="T4" s="6">
+      <c r="X4" s="4">
         <v>0.77</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6">
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4">
         <v>649.66800000000001</v>
       </c>
-      <c r="K5" s="6">
+      <c r="M5" s="4">
         <v>671.83939999999996</v>
       </c>
-      <c r="L5" s="7">
+      <c r="N5" s="5">
         <v>458.17910000000001</v>
       </c>
-      <c r="M5" s="6">
+      <c r="O5" s="4">
         <f t="shared" si="0"/>
         <v>458.17910000000001</v>
       </c>
-      <c r="N5" s="6">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4">
         <v>2.13</v>
       </c>
-      <c r="O5" s="6">
+      <c r="R5" s="4">
         <v>2.0499999999999998</v>
       </c>
-      <c r="P5" s="6">
+      <c r="S5" s="4">
         <v>2.68</v>
       </c>
-      <c r="Q5" s="6">
-        <f t="shared" si="1"/>
+      <c r="T5" s="4">
+        <f>MAX(Q5:S5)</f>
         <v>2.68</v>
       </c>
-      <c r="R5" s="6">
+      <c r="U5" s="4"/>
+      <c r="V5" s="4">
         <v>0.53</v>
       </c>
-      <c r="S5" s="6">
+      <c r="W5" s="4">
         <v>0.51</v>
       </c>
-      <c r="T5" s="6">
+      <c r="X5" s="4">
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6">
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
         <v>630.76580000000001</v>
       </c>
-      <c r="K6" s="6">
+      <c r="M6" s="4">
         <v>646.03629999999998</v>
       </c>
-      <c r="L6" s="7">
+      <c r="N6" s="5">
         <v>445.25364999999999</v>
       </c>
-      <c r="M6" s="6">
+      <c r="O6" s="4">
         <f t="shared" si="0"/>
         <v>445.25364999999999</v>
       </c>
-      <c r="N6" s="6">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O6" s="6">
+      <c r="R6" s="4">
         <v>2.13</v>
       </c>
-      <c r="P6" s="6">
+      <c r="S6" s="4">
         <v>2.76</v>
       </c>
-      <c r="Q6" s="6">
-        <f t="shared" si="1"/>
+      <c r="T6" s="4">
+        <f>MAX(Q6:S6)</f>
         <v>2.76</v>
       </c>
-      <c r="R6" s="6">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4">
         <v>0.44</v>
       </c>
-      <c r="S6" s="6">
+      <c r="W6" s="4">
         <v>0.42</v>
       </c>
-      <c r="T6" s="6">
+      <c r="X6" s="4">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6">
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
         <v>595.91875000000005</v>
       </c>
-      <c r="K7" s="6">
+      <c r="M7" s="4">
         <v>578.61159999999995</v>
       </c>
-      <c r="L7" s="7">
+      <c r="N7" s="5">
         <v>409.6515</v>
       </c>
-      <c r="M7" s="6">
+      <c r="O7" s="4">
         <f t="shared" si="0"/>
         <v>409.6515</v>
       </c>
-      <c r="N7" s="6">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4">
         <v>2.33</v>
       </c>
-      <c r="O7" s="6">
+      <c r="R7" s="4">
         <v>2.38</v>
       </c>
-      <c r="P7" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="6">
+      <c r="S7" s="4">
+        <v>3</v>
+      </c>
+      <c r="T7" s="4">
+        <f>MAX(Q7:S7)</f>
+        <v>3</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4">
+        <v>4374.0965999999999</v>
+      </c>
+      <c r="H9" s="4">
+        <v>4696.6341000000002</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3590.9475499999999</v>
+      </c>
+      <c r="J9" s="4">
+        <f>MIN(G9:I9)</f>
+        <v>3590.9475499999999</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
+        <v>2684.6662000000001</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2179.9955</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2002.1464000000001</v>
+      </c>
+      <c r="O9" s="4">
+        <f>MIN(L9:N9)</f>
+        <v>2002.1464000000001</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4">
+        <v>1.6292</v>
+      </c>
+      <c r="R9" s="4">
+        <v>2.1543999999999999</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1.7935399999999999</v>
+      </c>
+      <c r="T9" s="4">
+        <f>MAX(Q9:S9)</f>
+        <v>2.1543999999999999</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="W9" s="4">
+        <v>1.0771999999999999</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0.89670000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
+        <v>1807.8657499999999</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1690.68265</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1474.0976499999999</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" ref="O10:O13" si="1">MIN(L10:N10)</f>
+        <v>1474.0976499999999</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4">
+        <v>2.4194</v>
+      </c>
+      <c r="R10" s="4">
+        <v>2.7770000000000001</v>
+      </c>
+      <c r="S10" s="4">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" ref="T10:T13" si="2">MAX(Q10:S10)</f>
+        <v>2.7770000000000001</v>
+      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0.92598377347753702</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4">
+        <v>1554.473</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1562.6601499999999</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1172.1104499999999</v>
+      </c>
+      <c r="O11" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R7" s="6">
-        <v>0.38</v>
-      </c>
-      <c r="S7" s="6">
-        <v>0.39</v>
-      </c>
-      <c r="T7" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
+        <v>1172.1104499999999</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4">
+        <v>2.8130000000000002</v>
+      </c>
+      <c r="R11" s="4">
+        <v>3.0055369999999999</v>
+      </c>
+      <c r="S11" s="4">
+        <v>3.0630000000000002</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="2"/>
+        <v>3.0630000000000002</v>
+      </c>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0.75138444210022304</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4">
+        <v>1371.6228000000001</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1409.3516999999999</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1119.4682499999999</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="1"/>
+        <v>1119.4682499999999</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4">
+        <v>3.1880000000000002</v>
+      </c>
+      <c r="R12" s="4">
+        <v>3.3323999999999998</v>
+      </c>
+      <c r="S12" s="4">
+        <v>3.2069999999999999</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="2"/>
+        <v>3.3323999999999998</v>
+      </c>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4">
+        <v>0.63779875925072205</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0.66649568024787498</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
+        <v>1296.1840999999999</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1491.4474</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1210.6604</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="1"/>
+        <v>1210.6604</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4">
+        <v>3.37459</v>
+      </c>
+      <c r="R13" s="4">
+        <v>3.149</v>
+      </c>
+      <c r="S13" s="4">
+        <v>2.9661</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="2"/>
+        <v>3.37459</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4">
+        <v>0.56243252791019505</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0.52484073524818897</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
-        <v>2500</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>3500</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4">
+        <v>7886.9699000000001</v>
+      </c>
+      <c r="H15" s="5">
+        <v>7189.9579999999996</v>
+      </c>
+      <c r="I15" s="4">
+        <v>6946.7186499999998</v>
+      </c>
+      <c r="J15" s="4">
+        <f>MIN(G15:I15)</f>
+        <v>6946.7186499999998</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
+        <v>4704.8050999999996</v>
+      </c>
+      <c r="M15" s="4">
+        <v>4237.4497499999998</v>
+      </c>
+      <c r="N15" s="4">
+        <v>3579.0030499999998</v>
+      </c>
+      <c r="O15" s="4">
+        <f>MIN(L15:N15)</f>
+        <v>3579.0030499999998</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
+        <v>3344.6293500000002</v>
+      </c>
+      <c r="M16" s="4">
+        <v>3209.5850999999998</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2735.3495499999999</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" ref="O16:O19" si="3">MIN(L16:N16)</f>
+        <v>2735.3495499999999</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
+        <v>2754.6887499999998</v>
+      </c>
+      <c r="M17" s="4">
+        <v>3083.3841499999999</v>
+      </c>
+      <c r="N17" s="4">
+        <v>2576.1098000000002</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="3"/>
+        <v>2576.1098000000002</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
+        <v>2446.0747000000001</v>
+      </c>
+      <c r="M18" s="4">
+        <v>2833.7763500000001</v>
+      </c>
+      <c r="N18" s="4">
+        <v>2336.0162999999998</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="3"/>
+        <v>2336.0162999999998</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
+        <v>2802.9258</v>
+      </c>
+      <c r="M19" s="4">
+        <v>2744.8560000000002</v>
+      </c>
+      <c r="N19" s="4">
+        <v>2172.9760500000002</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="3"/>
+        <v>2172.9760500000002</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
-        <v>3500</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2">
         <v>4</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2">
         <v>5</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2">
         <v>6</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="3">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3">
-        <v>6</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/PerformanceTable.xlsx
+++ b/PerformanceTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Project Files\N-Body\Parallel-N-Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B955ACD6-7C46-4608-BC4D-3A8C5B606042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040523DA-CB25-4FEB-B002-1CFDC2A86D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7E97CE3A-31D6-4C49-8965-2B1756764954}"/>
   </bookViews>
@@ -602,16 +602,16 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
+        <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA76E44-F171-485F-834F-BB04EEBB1B63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8710FD2C-8060-4DED-B82F-D5613927B703}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -619,7 +619,172 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8458200" y="3748087"/>
+          <a:off x="12220575" y="3881437"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5740371E-5332-4E45-B968-2744C3682F69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12220575" y="3881437"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184CAE1F-0A43-458C-BA83-ADBB1DCD0EE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12220575" y="3881437"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B347B10F-0066-4094-A77B-574382A58276}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12220575" y="3881437"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -956,7 +1121,7 @@
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1774,10 +1939,19 @@
         <v>3579.0030499999998</v>
       </c>
       <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
+      <c r="Q15" s="4">
+        <v>1.6763648509053</v>
+      </c>
+      <c r="R15" s="4">
+        <v>1.69676537167196</v>
+      </c>
+      <c r="S15" s="4">
+        <v>1.9409647192113999</v>
+      </c>
+      <c r="T15" s="4">
+        <f>MAX(Q15:S15)</f>
+        <v>1.9409647192113999</v>
+      </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
@@ -1817,10 +1991,19 @@
         <v>2735.3495499999999</v>
       </c>
       <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
+      <c r="Q16" s="4">
+        <v>2.3580998295072702</v>
+      </c>
+      <c r="R16" s="4">
+        <v>2.2401518501565798</v>
+      </c>
+      <c r="S16" s="4">
+        <v>2.5396091150397901</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" ref="T16:T19" si="4">MAX(Q16:S16)</f>
+        <v>2.5396091150397901</v>
+      </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
@@ -1860,10 +2043,19 @@
         <v>2576.1098000000002</v>
       </c>
       <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
+      <c r="Q17" s="4">
+        <v>2.8631074563324099</v>
+      </c>
+      <c r="R17" s="4">
+        <v>2.3318398390288202</v>
+      </c>
+      <c r="S17" s="4">
+        <v>2.69659261029945</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="4"/>
+        <v>2.8631074563324099</v>
+      </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
@@ -1903,10 +2095,19 @@
         <v>2336.0162999999998</v>
       </c>
       <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+      <c r="Q18" s="4">
+        <v>3.2243373025361799</v>
+      </c>
+      <c r="R18" s="4">
+        <v>2.5372355161338001</v>
+      </c>
+      <c r="S18" s="4">
+        <v>2.9737457953525399</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="4"/>
+        <v>3.2243373025361799</v>
+      </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
@@ -1946,10 +2147,19 @@
         <v>2172.9760500000002</v>
       </c>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="Q19" s="4">
+        <v>2.8138347080040398</v>
+      </c>
+      <c r="R19" s="4">
+        <v>2.6194299445945401</v>
+      </c>
+      <c r="S19" s="4">
+        <v>3.1968684836632302</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="4"/>
+        <v>3.1968684836632302</v>
+      </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>

--- a/PerformanceTable.xlsx
+++ b/PerformanceTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Project Files\N-Body\Parallel-N-Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040523DA-CB25-4FEB-B002-1CFDC2A86D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC8327D-84C3-4BAF-9720-BE5208FCF8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7E97CE3A-31D6-4C49-8965-2B1756764954}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="20">
   <si>
     <t>n</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Custom</t>
   </si>
   <si>
-    <t>Алг</t>
-  </si>
-  <si>
     <t>PWI</t>
   </si>
   <si>
@@ -74,7 +71,7 @@
         <color theme="1" tint="0.14999847407452621"/>
         <rFont val="Montserrat"/>
       </rPr>
-      <t>1</t>
+      <t>p</t>
     </r>
     <r>
       <rPr>
@@ -99,7 +96,7 @@
         <color theme="1" tint="0.14999847407452621"/>
         <rFont val="Montserrat"/>
       </rPr>
-      <t>1</t>
+      <t>p</t>
     </r>
     <r>
       <rPr>
@@ -124,7 +121,7 @@
         <color theme="1" tint="0.14999847407452621"/>
         <rFont val="Montserrat"/>
       </rPr>
-      <t>1</t>
+      <t>p</t>
     </r>
     <r>
       <rPr>
@@ -149,12 +146,12 @@
         <color theme="1" tint="0.14999847407452621"/>
         <rFont val="Montserrat"/>
       </rPr>
-      <t>1 min</t>
+      <t>p min</t>
     </r>
   </si>
   <si>
     <r>
-      <t>T</t>
+      <t>S</t>
     </r>
     <r>
       <rPr>
@@ -164,7 +161,7 @@
         <color theme="1" tint="0.14999847407452621"/>
         <rFont val="Montserrat"/>
       </rPr>
-      <t>p</t>
+      <t xml:space="preserve">p </t>
     </r>
     <r>
       <rPr>
@@ -179,7 +176,7 @@
   </si>
   <si>
     <r>
-      <t>T</t>
+      <t>S</t>
     </r>
     <r>
       <rPr>
@@ -189,7 +186,7 @@
         <color theme="1" tint="0.14999847407452621"/>
         <rFont val="Montserrat"/>
       </rPr>
-      <t>p</t>
+      <t xml:space="preserve">p </t>
     </r>
     <r>
       <rPr>
@@ -204,7 +201,7 @@
   </si>
   <si>
     <r>
-      <t>T</t>
+      <t>S</t>
     </r>
     <r>
       <rPr>
@@ -214,7 +211,7 @@
         <color theme="1" tint="0.14999847407452621"/>
         <rFont val="Montserrat"/>
       </rPr>
-      <t>p</t>
+      <t xml:space="preserve">p </t>
     </r>
     <r>
       <rPr>
@@ -229,7 +226,7 @@
   </si>
   <si>
     <r>
-      <t>T</t>
+      <t>S</t>
     </r>
     <r>
       <rPr>
@@ -239,12 +236,12 @@
         <color theme="1" tint="0.14999847407452621"/>
         <rFont val="Montserrat"/>
       </rPr>
-      <t>p min</t>
+      <t>p max</t>
     </r>
   </si>
   <si>
     <r>
-      <t>S</t>
+      <t>E</t>
     </r>
     <r>
       <rPr>
@@ -269,7 +266,7 @@
   </si>
   <si>
     <r>
-      <t>S</t>
+      <t>E</t>
     </r>
     <r>
       <rPr>
@@ -294,7 +291,7 @@
   </si>
   <si>
     <r>
-      <t>S</t>
+      <t>E</t>
     </r>
     <r>
       <rPr>
@@ -318,94 +315,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t>p max</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t xml:space="preserve">p </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t>(1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t xml:space="preserve">p </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t>(2)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t xml:space="preserve">p </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t>(3)</t>
-    </r>
+    <t>Алг.</t>
   </si>
 </sst>
 </file>
@@ -512,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,6 +433,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,9 +443,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -565,6 +475,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,9 +486,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFE4B8"/>
       <color rgb="FFFF9E00"/>
       <color rgb="FFFFB948"/>
-      <color rgb="FFFFE4B8"/>
       <color rgb="FFFFD48D"/>
       <color rgb="FFFFC361"/>
       <color rgb="FFFFBB4C"/>
@@ -600,9 +513,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -655,9 +568,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -710,9 +623,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -765,9 +678,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -785,6 +698,61 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12220575" y="3881437"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1CC21D-F645-4FA7-BF51-9EB45C0AE668}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12220575" y="4795837"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1118,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F223BCBC-CBAE-4527-A091-6FBDA7E5C4E9}">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1131,18 +1099,16 @@
     <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1" style="1" customWidth="1"/>
     <col min="7" max="10" width="12.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="1" style="1" customWidth="1"/>
+    <col min="11" max="11" width="1.140625" style="1" customWidth="1"/>
     <col min="12" max="15" width="12.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1.140625" style="1" customWidth="1"/>
-    <col min="17" max="20" width="12.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="1.28515625" style="1" customWidth="1"/>
-    <col min="22" max="24" width="12.28515625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="1.28515625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="12.28515625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -1164,84 +1130,66 @@
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-    </row>
-    <row r="2" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1249,1085 +1197,1350 @@
       <c r="D3" s="2">
         <v>1500</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>1388.8100999999999</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>1377.66815</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>1230.5202999999999</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <f>MIN(G3:I3)</f>
         <v>1230.5202999999999</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4">
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
         <v>733.85709999999995</v>
       </c>
-      <c r="M3" s="4">
+      <c r="H4" s="5">
         <v>765.85815000000002</v>
       </c>
-      <c r="N3" s="5">
+      <c r="I4" s="6">
         <v>703.28035</v>
       </c>
-      <c r="O3" s="4">
-        <f xml:space="preserve"> MIN(L3:N3)</f>
+      <c r="J4" s="5">
+        <f xml:space="preserve"> MIN(G4:I4)</f>
         <v>703.28035</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5">
         <v>1.89</v>
       </c>
-      <c r="R3" s="4">
+      <c r="M4" s="5">
         <v>1.79</v>
       </c>
-      <c r="S3" s="4">
+      <c r="N4" s="5">
         <v>1.74</v>
       </c>
-      <c r="T3" s="4">
-        <f>MAX(Q3:S3)</f>
+      <c r="O4" s="5">
+        <f>MAX(L4:N4)</f>
         <v>1.89</v>
       </c>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5">
         <v>0.94</v>
       </c>
-      <c r="W3" s="4">
+      <c r="R4" s="5">
         <v>0.89</v>
       </c>
-      <c r="X3" s="4">
+      <c r="S4" s="5">
         <v>0.87</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
         <v>727.31280000000004</v>
       </c>
-      <c r="M4" s="4">
+      <c r="H5" s="5">
         <v>677.45740000000001</v>
       </c>
-      <c r="N4" s="5">
+      <c r="I5" s="6">
         <v>525.87789999999995</v>
       </c>
-      <c r="O4" s="4">
-        <f t="shared" ref="O4:O7" si="0" xml:space="preserve"> MIN(L4:N4)</f>
+      <c r="J5" s="5">
+        <f t="shared" ref="J5:J8" si="0" xml:space="preserve"> MIN(G5:I5)</f>
         <v>525.87789999999995</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5">
         <v>1.9</v>
       </c>
-      <c r="R4" s="4">
+      <c r="M5" s="5">
         <v>2.0299999999999998</v>
       </c>
-      <c r="S4" s="4">
+      <c r="N5" s="5">
         <v>2.33</v>
       </c>
-      <c r="T4" s="4">
-        <f>MAX(Q4:S4)</f>
+      <c r="O5" s="5">
+        <f>MAX(L5:N5)</f>
         <v>2.33</v>
       </c>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5">
         <v>0.63</v>
       </c>
-      <c r="W4" s="4">
+      <c r="R5" s="5">
         <v>0.67</v>
       </c>
-      <c r="X4" s="4">
+      <c r="S5" s="5">
         <v>0.77</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4">
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
         <v>649.66800000000001</v>
       </c>
-      <c r="M5" s="4">
+      <c r="H6" s="5">
         <v>671.83939999999996</v>
       </c>
-      <c r="N5" s="5">
+      <c r="I6" s="6">
         <v>458.17910000000001</v>
       </c>
-      <c r="O5" s="4">
+      <c r="J6" s="5">
         <f t="shared" si="0"/>
         <v>458.17910000000001</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
         <v>2.13</v>
       </c>
-      <c r="R5" s="4">
+      <c r="M6" s="5">
         <v>2.0499999999999998</v>
       </c>
-      <c r="S5" s="4">
+      <c r="N6" s="5">
         <v>2.68</v>
       </c>
-      <c r="T5" s="4">
-        <f>MAX(Q5:S5)</f>
+      <c r="O6" s="5">
+        <f>MAX(L6:N6)</f>
         <v>2.68</v>
       </c>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5">
         <v>0.53</v>
       </c>
-      <c r="W5" s="4">
+      <c r="R6" s="5">
         <v>0.51</v>
       </c>
-      <c r="X5" s="4">
+      <c r="S6" s="5">
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4">
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
         <v>630.76580000000001</v>
       </c>
-      <c r="M6" s="4">
+      <c r="H7" s="5">
         <v>646.03629999999998</v>
       </c>
-      <c r="N6" s="5">
+      <c r="I7" s="6">
         <v>445.25364999999999</v>
       </c>
-      <c r="O6" s="4">
+      <c r="J7" s="5">
         <f t="shared" si="0"/>
         <v>445.25364999999999</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R6" s="4">
+      <c r="M7" s="5">
         <v>2.13</v>
       </c>
-      <c r="S6" s="4">
+      <c r="N7" s="5">
         <v>2.76</v>
       </c>
-      <c r="T6" s="4">
-        <f>MAX(Q6:S6)</f>
+      <c r="O7" s="5">
+        <f>MAX(L7:N7)</f>
         <v>2.76</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5">
         <v>0.44</v>
       </c>
-      <c r="W6" s="4">
+      <c r="R7" s="5">
         <v>0.42</v>
       </c>
-      <c r="X6" s="4">
+      <c r="S7" s="5">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4">
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
         <v>595.91875000000005</v>
       </c>
-      <c r="M7" s="4">
+      <c r="H8" s="5">
         <v>578.61159999999995</v>
       </c>
-      <c r="N7" s="5">
+      <c r="I8" s="6">
         <v>409.6515</v>
       </c>
-      <c r="O7" s="4">
+      <c r="J8" s="5">
         <f t="shared" si="0"/>
         <v>409.6515</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
         <v>2.33</v>
       </c>
-      <c r="R7" s="4">
+      <c r="M8" s="5">
         <v>2.38</v>
       </c>
-      <c r="S7" s="4">
-        <v>3</v>
-      </c>
-      <c r="T7" s="4">
-        <f>MAX(Q7:S7)</f>
-        <v>3</v>
-      </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4">
+      <c r="N8" s="5">
+        <v>3</v>
+      </c>
+      <c r="O8" s="5">
+        <f>MAX(L8:N8)</f>
+        <v>3</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5">
         <v>0.38</v>
       </c>
-      <c r="W7" s="4">
+      <c r="R8" s="5">
         <v>0.39</v>
       </c>
-      <c r="X7" s="4">
+      <c r="S8" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+    </row>
+    <row r="10" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5">
+        <v>4374.0965999999999</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4696.6341000000002</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3590.9475499999999</v>
+      </c>
+      <c r="J10" s="5">
+        <f>MIN(G10:I10)</f>
+        <v>3590.9475499999999</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4">
-        <v>4374.0965999999999</v>
-      </c>
-      <c r="H9" s="4">
-        <v>4696.6341000000002</v>
-      </c>
-      <c r="I9" s="4">
-        <v>3590.9475499999999</v>
-      </c>
-      <c r="J9" s="4">
-        <f>MIN(G9:I9)</f>
-        <v>3590.9475499999999</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4">
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
         <v>2684.6662000000001</v>
       </c>
-      <c r="M9" s="4">
+      <c r="H11" s="5">
         <v>2179.9955</v>
       </c>
-      <c r="N9" s="4">
+      <c r="I11" s="5">
         <v>2002.1464000000001</v>
       </c>
-      <c r="O9" s="4">
-        <f>MIN(L9:N9)</f>
+      <c r="J11" s="5">
+        <f>MIN(G11:I11)</f>
         <v>2002.1464000000001</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
         <v>1.6292</v>
       </c>
-      <c r="R9" s="4">
+      <c r="M11" s="5">
         <v>2.1543999999999999</v>
       </c>
-      <c r="S9" s="4">
+      <c r="N11" s="5">
         <v>1.7935399999999999</v>
       </c>
-      <c r="T9" s="4">
-        <f>MAX(Q9:S9)</f>
+      <c r="O11" s="5">
+        <f>MAX(L11:N11)</f>
         <v>2.1543999999999999</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4">
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5">
         <v>0.81399999999999995</v>
       </c>
-      <c r="W9" s="4">
+      <c r="R11" s="5">
         <v>1.0771999999999999</v>
       </c>
-      <c r="X9" s="4">
+      <c r="S11" s="5">
         <v>0.89670000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
         <v>1807.8657499999999</v>
       </c>
-      <c r="M10" s="4">
+      <c r="H12" s="5">
         <v>1690.68265</v>
       </c>
-      <c r="N10" s="4">
+      <c r="I12" s="5">
         <v>1474.0976499999999</v>
       </c>
-      <c r="O10" s="4">
-        <f t="shared" ref="O10:O13" si="1">MIN(L10:N10)</f>
+      <c r="J12" s="5">
+        <f t="shared" ref="J12:J15" si="1">MIN(G12:I12)</f>
         <v>1474.0976499999999</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5">
         <v>2.4194</v>
       </c>
-      <c r="R10" s="4">
+      <c r="M12" s="5">
         <v>2.7770000000000001</v>
       </c>
-      <c r="S10" s="4">
+      <c r="N12" s="5">
         <v>2.4359999999999999</v>
       </c>
-      <c r="T10" s="4">
-        <f t="shared" ref="T10:T13" si="2">MAX(Q10:S10)</f>
+      <c r="O12" s="5">
+        <f t="shared" ref="O12:O15" si="2">MAX(L12:N12)</f>
         <v>2.7770000000000001</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5">
         <v>0.80600000000000005</v>
       </c>
-      <c r="W10" s="4">
+      <c r="R12" s="5">
         <v>0.92598377347753702</v>
       </c>
-      <c r="X10" s="4">
+      <c r="S12" s="5">
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4">
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
         <v>1554.473</v>
       </c>
-      <c r="M11" s="4">
+      <c r="H13" s="5">
         <v>1562.6601499999999</v>
       </c>
-      <c r="N11" s="4">
+      <c r="I13" s="5">
         <v>1172.1104499999999</v>
       </c>
-      <c r="O11" s="4">
+      <c r="J13" s="5">
         <f t="shared" si="1"/>
         <v>1172.1104499999999</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5">
         <v>2.8130000000000002</v>
       </c>
-      <c r="R11" s="4">
+      <c r="M13" s="5">
         <v>3.0055369999999999</v>
       </c>
-      <c r="S11" s="4">
+      <c r="N13" s="5">
         <v>3.0630000000000002</v>
       </c>
-      <c r="T11" s="4">
+      <c r="O13" s="5">
         <f t="shared" si="2"/>
         <v>3.0630000000000002</v>
       </c>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5">
         <v>0.70299999999999996</v>
       </c>
-      <c r="W11" s="4">
+      <c r="R13" s="5">
         <v>0.75138444210022304</v>
       </c>
-      <c r="X11" s="4">
+      <c r="S13" s="5">
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4">
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
         <v>1371.6228000000001</v>
       </c>
-      <c r="M12" s="5">
+      <c r="H14" s="6">
         <v>1409.3516999999999</v>
       </c>
-      <c r="N12" s="4">
+      <c r="I14" s="5">
         <v>1119.4682499999999</v>
       </c>
-      <c r="O12" s="4">
+      <c r="J14" s="5">
         <f t="shared" si="1"/>
         <v>1119.4682499999999</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
         <v>3.1880000000000002</v>
       </c>
-      <c r="R12" s="4">
+      <c r="M14" s="5">
         <v>3.3323999999999998</v>
       </c>
-      <c r="S12" s="4">
+      <c r="N14" s="5">
         <v>3.2069999999999999</v>
       </c>
-      <c r="T12" s="4">
+      <c r="O14" s="5">
         <f t="shared" si="2"/>
         <v>3.3323999999999998</v>
       </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4">
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5">
         <v>0.63779875925072205</v>
       </c>
-      <c r="W12" s="4">
+      <c r="R14" s="5">
         <v>0.66649568024787498</v>
       </c>
-      <c r="X12" s="4">
+      <c r="S14" s="5">
         <v>0.64</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4">
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
         <v>1296.1840999999999</v>
       </c>
-      <c r="M13" s="4">
+      <c r="H15" s="5">
         <v>1491.4474</v>
       </c>
-      <c r="N13" s="4">
+      <c r="I15" s="5">
         <v>1210.6604</v>
       </c>
-      <c r="O13" s="4">
+      <c r="J15" s="5">
         <f t="shared" si="1"/>
         <v>1210.6604</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4">
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
         <v>3.37459</v>
       </c>
-      <c r="R13" s="4">
+      <c r="M15" s="5">
         <v>3.149</v>
       </c>
-      <c r="S13" s="4">
+      <c r="N15" s="5">
         <v>2.9661</v>
       </c>
-      <c r="T13" s="4">
+      <c r="O15" s="5">
         <f t="shared" si="2"/>
         <v>3.37459</v>
       </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4">
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5">
         <v>0.56243252791019505</v>
       </c>
-      <c r="W13" s="4">
+      <c r="R15" s="5">
         <v>0.52484073524818897</v>
       </c>
-      <c r="X13" s="4">
+      <c r="S15" s="5">
         <v>0.49</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5">
+        <v>7886.9699000000001</v>
+      </c>
+      <c r="H17" s="6">
+        <v>7189.9579999999996</v>
+      </c>
+      <c r="I17" s="5">
+        <v>6946.7186499999998</v>
+      </c>
+      <c r="J17" s="5">
+        <f>MIN(G17:I17)</f>
+        <v>6946.7186499999998</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
-        <v>3500</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4">
-        <v>7886.9699000000001</v>
-      </c>
-      <c r="H15" s="5">
-        <v>7189.9579999999996</v>
-      </c>
-      <c r="I15" s="4">
-        <v>6946.7186499999998</v>
-      </c>
-      <c r="J15" s="4">
-        <f>MIN(G15:I15)</f>
-        <v>6946.7186499999998</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4">
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
         <v>4704.8050999999996</v>
       </c>
-      <c r="M15" s="4">
+      <c r="H18" s="5">
         <v>4237.4497499999998</v>
       </c>
-      <c r="N15" s="4">
+      <c r="I18" s="5">
         <v>3579.0030499999998</v>
       </c>
-      <c r="O15" s="4">
-        <f>MIN(L15:N15)</f>
+      <c r="J18" s="5">
+        <f>MIN(G18:I18)</f>
         <v>3579.0030499999998</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
         <v>1.6763648509053</v>
       </c>
-      <c r="R15" s="4">
+      <c r="M18" s="5">
         <v>1.69676537167196</v>
       </c>
-      <c r="S15" s="4">
+      <c r="N18" s="5">
         <v>1.9409647192113999</v>
       </c>
-      <c r="T15" s="4">
-        <f>MAX(Q15:S15)</f>
+      <c r="O18" s="5">
+        <f>MAX(L18:N18)</f>
         <v>1.9409647192113999</v>
       </c>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5">
+        <v>0.83818242545264998</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.84838268583597998</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.97048235960570095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
         <v>3344.6293500000002</v>
       </c>
-      <c r="M16" s="4">
+      <c r="H19" s="5">
         <v>3209.5850999999998</v>
       </c>
-      <c r="N16" s="4">
+      <c r="I19" s="5">
         <v>2735.3495499999999</v>
       </c>
-      <c r="O16" s="4">
-        <f t="shared" ref="O16:O19" si="3">MIN(L16:N16)</f>
+      <c r="J19" s="5">
+        <f t="shared" ref="J19:J22" si="3">MIN(G19:I19)</f>
         <v>2735.3495499999999</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
         <v>2.3580998295072702</v>
       </c>
-      <c r="R16" s="4">
+      <c r="M19" s="5">
         <v>2.2401518501565798</v>
       </c>
-      <c r="S16" s="4">
+      <c r="N19" s="5">
         <v>2.5396091150397901</v>
       </c>
-      <c r="T16" s="4">
-        <f t="shared" ref="T16:T19" si="4">MAX(Q16:S16)</f>
+      <c r="O19" s="5">
+        <f t="shared" ref="O19:O22" si="4">MAX(L19:N19)</f>
         <v>2.5396091150397901</v>
       </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5">
+        <v>0.78603327650242205</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.74671728338552701</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.84653637167993101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
         <v>4</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4">
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
         <v>2754.6887499999998</v>
       </c>
-      <c r="M17" s="4">
+      <c r="H20" s="5">
         <v>3083.3841499999999</v>
       </c>
-      <c r="N17" s="4">
+      <c r="I20" s="5">
         <v>2576.1098000000002</v>
       </c>
-      <c r="O17" s="4">
+      <c r="J20" s="5">
         <f t="shared" si="3"/>
         <v>2576.1098000000002</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4">
+      <c r="K20" s="5"/>
+      <c r="L20" s="5">
         <v>2.8631074563324099</v>
       </c>
-      <c r="R17" s="4">
+      <c r="M20" s="5">
         <v>2.3318398390288202</v>
       </c>
-      <c r="S17" s="4">
+      <c r="N20" s="5">
         <v>2.69659261029945</v>
       </c>
-      <c r="T17" s="4">
+      <c r="O20" s="5">
         <f t="shared" si="4"/>
         <v>2.8631074563324099</v>
       </c>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5">
+        <v>0.71577686408310204</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.58295995975720405</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.67414815257486305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2">
         <v>5</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4">
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
         <v>2446.0747000000001</v>
       </c>
-      <c r="M18" s="4">
+      <c r="H21" s="5">
         <v>2833.7763500000001</v>
       </c>
-      <c r="N18" s="4">
+      <c r="I21" s="5">
         <v>2336.0162999999998</v>
       </c>
-      <c r="O18" s="4">
+      <c r="J21" s="5">
         <f t="shared" si="3"/>
         <v>2336.0162999999998</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4">
+      <c r="K21" s="5"/>
+      <c r="L21" s="5">
         <v>3.2243373025361799</v>
       </c>
-      <c r="R18" s="4">
+      <c r="M21" s="5">
         <v>2.5372355161338001</v>
       </c>
-      <c r="S18" s="4">
+      <c r="N21" s="5">
         <v>2.9737457953525399</v>
       </c>
-      <c r="T18" s="4">
+      <c r="O21" s="5">
         <f t="shared" si="4"/>
         <v>3.2243373025361799</v>
       </c>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5">
+        <v>0.64486746050723598</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0.50744710322676001</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0.59474915907050796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
         <v>6</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4">
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5">
         <v>2802.9258</v>
       </c>
-      <c r="M19" s="4">
+      <c r="H22" s="5">
         <v>2744.8560000000002</v>
       </c>
-      <c r="N19" s="4">
+      <c r="I22" s="5">
         <v>2172.9760500000002</v>
       </c>
-      <c r="O19" s="4">
+      <c r="J22" s="5">
         <f t="shared" si="3"/>
         <v>2172.9760500000002</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5">
         <v>2.8138347080040398</v>
       </c>
-      <c r="R19" s="4">
+      <c r="M22" s="5">
         <v>2.6194299445945401</v>
       </c>
-      <c r="S19" s="4">
+      <c r="N22" s="5">
         <v>3.1968684836632302</v>
       </c>
-      <c r="T19" s="4">
+      <c r="O22" s="5">
         <f t="shared" si="4"/>
         <v>3.1968684836632302</v>
       </c>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5">
+        <v>0.468972451334007</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0.43657165743242399</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0.53281141394387099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+    </row>
+    <row r="24" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2">
+        <v>17977.063399999999</v>
+      </c>
+      <c r="H24" s="2">
+        <v>31821.222000000002</v>
+      </c>
+      <c r="I24" s="2">
+        <v>13721.1922</v>
+      </c>
+      <c r="J24" s="2">
+        <f>MIN(G24:I24)</f>
+        <v>13721.1922</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <v>8642.0640500000009</v>
+      </c>
+      <c r="H25" s="2">
+        <v>7841.6718499999997</v>
+      </c>
+      <c r="I25" s="2">
+        <v>7843.0662499999999</v>
+      </c>
+      <c r="J25" s="2">
+        <f>MIN(G25:I25)</f>
+        <v>7841.6718499999997</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2">
+        <v>2.0801816899285801</v>
+      </c>
+      <c r="M25" s="2">
+        <v>4.05796399144144</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1.74946784365107</v>
+      </c>
+      <c r="O25" s="2">
+        <f>MAX(L25:N25)</f>
+        <v>4.05796399144144</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>6857.5996999999998</v>
+      </c>
+      <c r="H26" s="2">
+        <v>6076.7350999999999</v>
+      </c>
+      <c r="I26" s="2">
+        <v>6985.6432000000004</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" ref="J26:J29" si="5">MIN(G26:I26)</f>
+        <v>6076.7350999999999</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2">
+        <v>2.6214804284945399</v>
+      </c>
+      <c r="M26" s="2">
+        <v>5.2365656024729503</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1.96419882996601</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" ref="O26:O29" si="6">MAX(L26:N26)</f>
+        <v>5.2365656024729503</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2">
         <v>4</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <v>5955.0176499999998</v>
+      </c>
+      <c r="H27" s="2">
+        <v>6477.5965499999902</v>
+      </c>
+      <c r="I27" s="2">
+        <v>5372.9853999999996</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="5"/>
+        <v>5372.9853999999996</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2">
+        <v>3.0188094236798801</v>
+      </c>
+      <c r="M27" s="2">
+        <v>4.9125044689607904</v>
+      </c>
+      <c r="N27" s="2">
+        <v>2.5537371086100502</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="6"/>
+        <v>4.9125044689607904</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2">
         <v>5</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5205.0365499999998</v>
+      </c>
+      <c r="H28" s="1">
+        <v>6527.88645000001</v>
+      </c>
+      <c r="I28" s="1">
+        <v>4978.1838000000098</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="5"/>
+        <v>4978.1838000000098</v>
+      </c>
+      <c r="L28" s="1">
+        <v>3.4537823562449401</v>
+      </c>
+      <c r="M28" s="1">
+        <v>4.8746592398217903</v>
+      </c>
+      <c r="N28" s="1">
+        <v>2.7562646843212102</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="6"/>
+        <v>4.8746592398217903</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2">
         <v>6</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="2"/>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4442.9139999999998</v>
+      </c>
+      <c r="H29" s="1">
+        <v>6208.5917500000096</v>
+      </c>
+      <c r="I29" s="1">
+        <v>4731.5975500000104</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="5"/>
+        <v>4442.9139999999998</v>
+      </c>
+      <c r="L29" s="1">
+        <v>4.0462325851907099</v>
+      </c>
+      <c r="M29" s="1">
+        <v>5.1253526212284699</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2.8999068612671799</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="6"/>
+        <v>5.1253526212284699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/PerformanceTable.xlsx
+++ b/PerformanceTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Project Files\N-Body\Parallel-N-Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC8327D-84C3-4BAF-9720-BE5208FCF8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459941D8-D73B-4B95-B465-0D3E3E6D3D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7E97CE3A-31D6-4C49-8965-2B1756764954}"/>
   </bookViews>
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2329,9 +2329,15 @@
         <v>4.05796399144144</v>
       </c>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
+      <c r="Q25" s="2">
+        <v>1.0400908449642901</v>
+      </c>
+      <c r="R25" s="2">
+        <v>2.02898199572072</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0.874733921825536</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -2378,9 +2384,15 @@
         <v>5.2365656024729503</v>
       </c>
       <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
+      <c r="Q26" s="2">
+        <v>0.87382680949817904</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1.74552186749098</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0.65473294332200205</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -2427,9 +2439,15 @@
         <v>4.9125044689607904</v>
       </c>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
+      <c r="Q27" s="2">
+        <v>0.75470235591996904</v>
+      </c>
+      <c r="R27" s="2">
+        <v>1.2281261172402</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0.638434277152512</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -2473,6 +2491,15 @@
         <f t="shared" si="6"/>
         <v>4.8746592398217903</v>
       </c>
+      <c r="Q28" s="1">
+        <v>0.69075647124898698</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.97493184796435794</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0.55125293686424304</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -2515,6 +2542,15 @@
       <c r="O29" s="2">
         <f t="shared" si="6"/>
         <v>5.1253526212284699</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0.67437209753178495</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0.85422543687141195</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0.48331781021119702</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">

--- a/PerformanceTable.xlsx
+++ b/PerformanceTable.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Project Files\N-Body\Parallel-N-Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459941D8-D73B-4B95-B465-0D3E3E6D3D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C556480A-4BC5-4783-9DF3-E118A42BBF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7E97CE3A-31D6-4C49-8965-2B1756764954}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{7E97CE3A-31D6-4C49-8965-2B1756764954}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Parallel PWI (Custom Threads)" sheetId="1" r:id="rId1"/>
+    <sheet name="Parallel BH (Custom Threads)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="22">
   <si>
     <t>n</t>
   </si>
@@ -317,6 +318,12 @@
   <si>
     <t>Алг.</t>
   </si>
+  <si>
+    <t>Получени резултати (Паралелен BH)</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
 </sst>
 </file>
 
@@ -366,7 +373,7 @@
       <name val="Montserrat"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,12 +383,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9E00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD48D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,13 +443,13 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -457,19 +458,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -753,6 +751,286 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12220575" y="4795837"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1BBB046-3722-49EE-82DA-43E845809109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="4795837"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E037D67-55B2-4961-B264-EE31D7A162F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="5024437"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894BA730-8B12-4F3D-9EE5-ABF4004AD4CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="5253037"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F2F8D9-75ED-47E3-A3A1-681A256039F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="5481637"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF69203-3BC7-4CF5-A636-AFE6CAAE967B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="7081837"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1088,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F223BCBC-CBAE-4527-A091-6FBDA7E5C4E9}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1511,27 +1789,27 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-    </row>
-    <row r="10" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+    </row>
+    <row r="10" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1861,25 +2139,25 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -2210,27 +2488,27 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="13"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-    </row>
-    <row r="24" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+    </row>
+    <row r="24" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -2554,25 +2832,25 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="13"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2582,4 +2860,830 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9021A6C7-856A-4A52-96E1-F35079460818}">
+  <dimension ref="A1:S30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1" style="1" customWidth="1"/>
+    <col min="7" max="10" width="12.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="1.140625" style="1" customWidth="1"/>
+    <col min="12" max="15" width="12.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.28515625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="12.28515625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+    </row>
+    <row r="2" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+    </row>
+    <row r="10" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+    </row>
+    <row r="24" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/PerformanceTable.xlsx
+++ b/PerformanceTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Project Files\N-Body\Parallel-N-Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C556480A-4BC5-4783-9DF3-E118A42BBF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3C8FFA-944D-4231-8271-860A5210BD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{7E97CE3A-31D6-4C49-8965-2B1756764954}"/>
   </bookViews>
@@ -2867,7 +2867,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2978,10 +2978,40 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="5"/>
+      <c r="G3" s="5">
+        <v>4959.9467500000001</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5933.0617000000002</v>
+      </c>
+      <c r="I3" s="6">
+        <v>5317.4796500000002</v>
+      </c>
+      <c r="J3" s="5">
+        <f>MIN(G3:I3)</f>
+        <v>4959.9467500000001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3000,19 +3030,43 @@
         <v>3</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="5"/>
+      <c r="G4" s="5">
+        <v>3114.8315499999999</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3811.5953500000001</v>
+      </c>
+      <c r="I4" s="6">
+        <v>3352.0027500000001</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J8" si="0">MIN(G4:I4)</f>
+        <v>3114.8315499999999</v>
+      </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="L4" s="5">
+        <v>1.5923643607629401</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1.5565822589221101</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1.5863589759883101</v>
+      </c>
+      <c r="O4" s="5">
+        <f>MAX(L4:N4)</f>
+        <v>1.5923643607629401</v>
+      </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="Q4" s="5">
+        <v>0.79618218038147204</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.77829112946105405</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.79317948799415505</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -3031,19 +3085,43 @@
         <v>3</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="5"/>
+      <c r="G5" s="5">
+        <v>3082.2714999999998</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4181.4708499999997</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3520.6898999999999</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>3082.2714999999998</v>
+      </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="L5" s="5">
+        <v>1.60918554708759</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1.4188934738119701</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1.51035160750738</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" ref="O5:O8" si="1">MAX(L5:N5)</f>
+        <v>1.60918554708759</v>
+      </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="Q5" s="5">
+        <v>0.53639518236253103</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.47296449127065698</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.50345053583579302</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -3062,19 +3140,43 @@
         <v>3</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="5"/>
+      <c r="G6" s="5">
+        <v>3269.1268500000001</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3679.4452000000001</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3179.0747999999999</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>3179.0747999999999</v>
+      </c>
       <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="L6" s="5">
+        <v>1.51720840994592</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1.61248812728615</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1.6726500584383901</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="1"/>
+        <v>1.6726500584383901</v>
+      </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="Q6" s="5">
+        <v>0.379302102486479</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.403122031821537</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.41816251460959603</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -3093,19 +3195,43 @@
         <v>3</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="5"/>
+      <c r="G7" s="5">
+        <v>3232.1435000000001</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3213.6221</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2973.1637999999998</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>2973.1637999999998</v>
+      </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="L7" s="5">
+        <v>1.53456885500288</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1.8462225847899201</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1.78849199294031</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8462225847899201</v>
+      </c>
       <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="Q7" s="5">
+        <v>0.30691377100057599</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.36924451695798299</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.35769839858806302</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -3124,19 +3250,43 @@
         <v>3</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5"/>
+      <c r="G8" s="5">
+        <v>3316.9272999999998</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3164.9781499999999</v>
+      </c>
+      <c r="I8" s="6">
+        <v>3006.1505999999999</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>3006.1505999999999</v>
+      </c>
       <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="L8" s="5">
+        <v>1.4953438231823799</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1.8745979968297699</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1.76886668618665</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8745979968297699</v>
+      </c>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="Q8" s="5">
+        <v>0.24922397053039599</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.312432999471629</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.29481111436444102</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
@@ -3176,19 +3326,42 @@
         <v>3</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="G10" s="5">
+        <v>7466.7559499999998</v>
+      </c>
+      <c r="H10" s="5">
+        <v>6965.1264499999997</v>
+      </c>
+      <c r="I10" s="5">
+        <v>6951.8675000000003</v>
+      </c>
+      <c r="J10" s="5">
+        <f>MIN(G10:I10)</f>
+        <v>6951.8675000000003</v>
+      </c>
       <c r="K10" s="4"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -3207,19 +3380,43 @@
         <v>3</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="G11" s="5">
+        <v>4916.9587000000001</v>
+      </c>
+      <c r="H11" s="5">
+        <v>4692.9448499999999</v>
+      </c>
+      <c r="I11" s="5">
+        <v>4540.77495</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" ref="J11:J15" si="2">MIN(G11:I11)</f>
+        <v>4540.77495</v>
+      </c>
       <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="L11" s="5">
+        <v>1.51857202908782</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1.4841696786613601</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1.53098701797586</v>
+      </c>
+      <c r="O11" s="5">
+        <f>MAX(L11:N11)</f>
+        <v>1.53098701797586</v>
+      </c>
       <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="Q11" s="5">
+        <v>0.75928601454390898</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.74208483933068103</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0.765493508987932</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -3238,19 +3435,43 @@
         <v>3</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="G12" s="5">
+        <v>5269.0929999999998</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4702.0117499999997</v>
+      </c>
+      <c r="I12" s="5">
+        <v>4819.4386999999997</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="2"/>
+        <v>4702.0117499999997</v>
+      </c>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="L12" s="5">
+        <v>1.4170856255526301</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1.4813077508791801</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1.4424641400667699</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" ref="O12:O15" si="3">MAX(L12:N12)</f>
+        <v>1.4813077508791801</v>
+      </c>
       <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="Q12" s="5">
+        <v>0.47236187518421102</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.49376925029306201</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0.480821380022256</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -3269,19 +3490,43 @@
         <v>3</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="G13" s="5">
+        <v>4938.9751999999999</v>
+      </c>
+      <c r="H13" s="5">
+        <v>4881.7921500000002</v>
+      </c>
+      <c r="I13" s="5">
+        <v>4595.3268500000004</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="2"/>
+        <v>4595.3268500000004</v>
+      </c>
       <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="L13" s="5">
+        <v>1.51180268125258</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1.4267560428602</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1.51281241289725</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="3"/>
+        <v>1.51281241289725</v>
+      </c>
       <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
+      <c r="Q13" s="5">
+        <v>0.377950670313145</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.35668901071505099</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.378203103224312</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -3300,19 +3545,43 @@
         <v>3</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="G14" s="5">
+        <v>4842.0749999999998</v>
+      </c>
+      <c r="H14" s="6">
+        <v>4762.4546</v>
+      </c>
+      <c r="I14" s="5">
+        <v>5538.5201999999999</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="2"/>
+        <v>4762.4546</v>
+      </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="L14" s="5">
+        <v>1.54205706231316</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1.4625076845876901</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1.2551850041099399</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="3"/>
+        <v>1.54205706231316</v>
+      </c>
       <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
+      <c r="Q14" s="5">
+        <v>0.30841141246263198</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.292501536917538</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0.25103700082198799</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -3331,19 +3600,43 @@
         <v>3</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="G15" s="5">
+        <v>4947.21965</v>
+      </c>
+      <c r="H15" s="5">
+        <v>4816.6972999999998</v>
+      </c>
+      <c r="I15" s="5">
+        <v>4866.9758000000002</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="2"/>
+        <v>4816.6972999999998</v>
+      </c>
       <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="L15" s="5">
+        <v>1.5092832900597</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1.44603781724046</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1.4283751934825699</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5092832900597</v>
+      </c>
       <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
+      <c r="Q15" s="5">
+        <v>0.25154721500994998</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.24100630287340899</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0.238062532247096</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
@@ -3383,11 +3676,41 @@
         <v>3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="G17" s="5">
+        <v>17621.61635</v>
+      </c>
+      <c r="H17" s="6">
+        <v>17174.240099999999</v>
+      </c>
+      <c r="I17" s="5">
+        <v>16445.56035</v>
+      </c>
+      <c r="J17" s="5">
+        <f>MIN(G17:I17)</f>
+        <v>16445.56035</v>
+      </c>
       <c r="K17" s="4"/>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -3406,19 +3729,43 @@
         <v>3</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="G18" s="5">
+        <v>11351.567300000001</v>
+      </c>
+      <c r="H18" s="5">
+        <v>10933.135</v>
+      </c>
+      <c r="I18" s="5">
+        <v>9911.7412000000004</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" ref="J18:J22" si="4">MIN(G18:I18)</f>
+        <v>9911.7412000000004</v>
+      </c>
       <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+      <c r="L18" s="5">
+        <v>1.55235095597768</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1.5708431387703501</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1.6591999345180599</v>
+      </c>
+      <c r="O18" s="5">
+        <f>MAX(L18:N18)</f>
+        <v>1.6591999345180599</v>
+      </c>
       <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
+      <c r="Q18" s="5">
+        <v>0.77617547798884101</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.78542156938517604</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.82959996725903196</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -3437,19 +3784,43 @@
         <v>3</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="G19" s="5">
+        <v>13014.2217</v>
+      </c>
+      <c r="H19" s="5">
+        <v>11300.745199999999</v>
+      </c>
+      <c r="I19" s="5">
+        <v>10002.031800000001</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="4"/>
+        <v>10002.031800000001</v>
+      </c>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="L19" s="5">
+        <v>1.3540276749703699</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1.5197440342252799</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1.64422196198176</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" ref="O19:O22" si="5">MAX(L19:N19)</f>
+        <v>1.64422196198176</v>
+      </c>
       <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
+      <c r="Q19" s="5">
+        <v>0.45134255832345799</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.50658134474176097</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.54807398732725499</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -3468,19 +3839,43 @@
         <v>3</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="G20" s="5">
+        <v>12752.78045</v>
+      </c>
+      <c r="H20" s="5">
+        <v>10951.2022</v>
+      </c>
+      <c r="I20" s="5">
+        <v>10228.942800000001</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="4"/>
+        <v>10228.942800000001</v>
+      </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="L20" s="5">
+        <v>1.3817862245091801</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1.5682515751558299</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1.6077478065475199</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="5"/>
+        <v>1.6077478065475199</v>
+      </c>
       <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
+      <c r="Q20" s="5">
+        <v>0.34544655612729502</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.39206289378895798</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.40193695163687898</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -3499,19 +3894,43 @@
         <v>3</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="G21" s="5">
+        <v>11998.1322</v>
+      </c>
+      <c r="H21" s="5">
+        <v>10585.2413</v>
+      </c>
+      <c r="I21" s="5">
+        <v>10487.721750000001</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="4"/>
+        <v>10487.721750000001</v>
+      </c>
       <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="L21" s="5">
+        <v>1.4686966317974099</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1.6224703446297399</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1.5680774854653201</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="5"/>
+        <v>1.6224703446297399</v>
+      </c>
       <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
+      <c r="Q21" s="5">
+        <v>0.29373932635948102</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0.32449406892594901</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0.31361549709306502</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -3530,19 +3949,43 @@
         <v>3</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="G22" s="5">
+        <v>12368.83855</v>
+      </c>
+      <c r="H22" s="5">
+        <v>10894.4238</v>
+      </c>
+      <c r="I22" s="5">
+        <v>10516.1181</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="4"/>
+        <v>10516.1181</v>
+      </c>
       <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="L22" s="5">
+        <v>1.42467833812901</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1.57642482202684</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1.5638432540996301</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="5"/>
+        <v>1.57642482202684</v>
+      </c>
       <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
+      <c r="Q22" s="5">
+        <v>0.237446389688168</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0.26273747033780698</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0.260640542349938</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>

--- a/PerformanceTable.xlsx
+++ b/PerformanceTable.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Project Files\N-Body\Parallel-N-Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3C8FFA-944D-4231-8271-860A5210BD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB27E65-7F68-4BA5-B386-4D4D2A0C1D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{7E97CE3A-31D6-4C49-8965-2B1756764954}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{7E97CE3A-31D6-4C49-8965-2B1756764954}"/>
   </bookViews>
   <sheets>
     <sheet name="Parallel PWI (Custom Threads)" sheetId="1" r:id="rId1"/>
     <sheet name="Parallel BH (Custom Threads)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="46">
   <si>
     <t>n</t>
   </si>
   <si>
     <t>rF</t>
-  </si>
-  <si>
-    <t>tC</t>
   </si>
   <si>
     <t>~</t>
@@ -324,12 +322,106 @@
   <si>
     <t>BH</t>
   </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Процесор</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>Система</t>
+  </si>
+  <si>
+    <t>JUGENE</t>
+  </si>
+  <si>
+    <t>SunFire</t>
+  </si>
+  <si>
+    <t>Моята</t>
+  </si>
+  <si>
+    <t>Брой ядра</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <r>
+      <t>Intel® Core</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>ТМ­</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve"> i7-8750H @2.2Ghz </t>
+    </r>
+  </si>
+  <si>
+    <t>e 1.2GHz UltraSPARC T1</t>
+  </si>
+  <si>
+    <t>16GB</t>
+  </si>
+  <si>
+    <t>144 TB</t>
+  </si>
+  <si>
+    <t>32GB</t>
+  </si>
+  <si>
+    <t>Памет</t>
+  </si>
+  <si>
+    <t>6PB</t>
+  </si>
+  <si>
+    <t>146GB</t>
+  </si>
+  <si>
+    <t>1TB</t>
+  </si>
+  <si>
+    <t>1.5MB</t>
+  </si>
+  <si>
+    <t>9MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 384KB</t>
+  </si>
+  <si>
+    <t>Таблица с характеристики</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +462,44 @@
       <vertAlign val="superscript"/>
       <sz val="14"/>
       <color theme="1" tint="0.14999847407452621"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="12.5"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF7B2CBF"/>
+      <name val="Montserrat Black"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Montserrat"/>
     </font>
   </fonts>
@@ -423,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -476,6 +606,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,14 +633,14 @@
   <colors>
     <mruColors>
       <color rgb="FFFFE4B8"/>
+      <color rgb="FFFFBB4C"/>
+      <color rgb="FFFFB948"/>
+      <color rgb="FF7B2CBF"/>
       <color rgb="FFFF9E00"/>
-      <color rgb="FFFFB948"/>
       <color rgb="FFFFD48D"/>
       <color rgb="FFFFC361"/>
-      <color rgb="FFFFBB4C"/>
       <color rgb="FFFFBD52"/>
       <color rgb="FFFFC76B"/>
-      <color rgb="FF7B2CBF"/>
       <color rgb="FF3C096C"/>
     </mruColors>
   </colors>
@@ -1367,7 +1515,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1388,7 +1536,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1411,13 +1559,13 @@
     </row>
     <row r="2" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>0</v>
@@ -1427,50 +1575,50 @@
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
         <v>1500</v>
@@ -1515,19 +1663,19 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5">
@@ -1570,19 +1718,19 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
@@ -1625,19 +1773,19 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
@@ -1680,19 +1828,19 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
@@ -1735,19 +1883,19 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
@@ -1811,19 +1959,19 @@
     </row>
     <row r="10" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2">
         <v>2500</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="5">
@@ -1865,19 +2013,19 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
@@ -1920,19 +2068,19 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
@@ -1975,19 +2123,19 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
@@ -2030,19 +2178,19 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
@@ -2085,19 +2233,19 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2">
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5">
@@ -2161,19 +2309,19 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2">
         <v>3500</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="5">
@@ -2214,19 +2362,19 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5">
@@ -2269,19 +2417,19 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5">
@@ -2324,19 +2472,19 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
@@ -2379,19 +2527,19 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="2">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
@@ -2434,19 +2582,19 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="2">
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
@@ -2510,19 +2658,19 @@
     </row>
     <row r="24" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2">
         <v>5000</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="2">
@@ -2564,19 +2712,19 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -2619,19 +2767,19 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="2">
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
@@ -2674,19 +2822,19 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -2729,19 +2877,19 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" s="2">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1">
         <v>5205.0365499999998</v>
@@ -2781,19 +2929,19 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" s="2">
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1">
         <v>4442.9139999999998</v>
@@ -2866,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9021A6C7-856A-4A52-96E1-F35079460818}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2888,7 +3036,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2911,13 +3059,13 @@
     </row>
     <row r="2" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>0</v>
@@ -2927,50 +3075,50 @@
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
         <v>1000</v>
@@ -3015,19 +3163,19 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5">
@@ -3070,19 +3218,19 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
@@ -3125,19 +3273,19 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
@@ -3180,19 +3328,19 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
@@ -3235,19 +3383,19 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
@@ -3311,19 +3459,19 @@
     </row>
     <row r="10" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2">
         <v>1500</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="5">
@@ -3365,19 +3513,19 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
@@ -3420,19 +3568,19 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
@@ -3475,19 +3623,19 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
@@ -3530,19 +3678,19 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
@@ -3585,19 +3733,19 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2">
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5">
@@ -3661,19 +3809,19 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2">
         <v>3500</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="5">
@@ -3714,19 +3862,19 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5">
@@ -3769,19 +3917,19 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5">
@@ -3824,19 +3972,19 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
@@ -3879,19 +4027,19 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="2">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
@@ -3934,19 +4082,19 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="2">
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
@@ -4129,4 +4277,148 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E454EE97-E5E7-452E-8080-545F302C3257}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="19">
+        <v>294912</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>